--- a/Construction/Result/Result 2606.xlsx
+++ b/Construction/Result/Result 2606.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavolazarottoschroeder/Documents/GitHub/Assignment-Data-Prospection/Result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavolazarottoschroeder/Documents/GitHub/Assignment-Data-Prospection/Construction/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B68BB9-90F6-534B-BE71-B224BF771415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165AB0FD-B6F1-9E49-90A4-CA050826C292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32000" yWindow="500" windowWidth="32000" windowHeight="34340" activeTab="1" xr2:uid="{D2C57E69-E6FA-4ACE-A27A-BD08A5E49320}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{D2C57E69-E6FA-4ACE-A27A-BD08A5E49320}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$K$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha2!$A$1:$B$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha3!$A$1:$C$297</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Planilha3!$B$262:$B$265</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Planilha3!$C$262:$C$265</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -744,42 +742,11 @@
           <c:cat>
             <c:strRef>
               <c:f>Planilha3!$B$262:$B$265</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Digital Dependent</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Hard User</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Normal User</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Light User</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Planilha3!$C$262:$C$265</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.32625435056106999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25825228529257599</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24882321842035801</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16667014572599401</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2752,10 +2719,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438CB4AF-D32A-4955-882E-A2F013ACB6AD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2805,7 +2773,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -2840,7 +2808,7 @@
         <v>0.32625435056106999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2875,7 +2843,7 @@
         <v>0.30935963962185697</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2945,7 +2913,7 @@
         <v>0.28109560465010802</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -2980,7 +2948,7 @@
         <v>0.27752529726951802</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -3015,7 +2983,7 @@
         <v>0.27202654284337102</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -3050,7 +3018,7 @@
         <v>0.26888475281813801</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -3085,7 +3053,7 @@
         <v>0.26706177516588497</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3120,7 +3088,7 @@
         <v>0.32318623751101999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3155,7 +3123,7 @@
         <v>0.31024710295574798</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -3190,7 +3158,7 @@
         <v>0.30915504015686301</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3225,7 +3193,7 @@
         <v>0.30841094947537401</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3260,7 +3228,7 @@
         <v>0.29915893906389401</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3295,7 +3263,7 @@
         <v>0.29578302363225001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3330,7 +3298,7 @@
         <v>0.286657242498572</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -3365,7 +3333,7 @@
         <v>0.28630192297323898</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -3400,7 +3368,7 @@
         <v>0.28394334782356301</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -3435,7 +3403,7 @@
         <v>0.28336010677302798</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -3470,7 +3438,7 @@
         <v>0.26733259264599002</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -3505,7 +3473,7 @@
         <v>0.42568415647878899</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -3540,7 +3508,7 @@
         <v>0.36613195595910097</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -3575,7 +3543,7 @@
         <v>0.35864071601374797</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3610,7 +3578,7 @@
         <v>0.354073338617515</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -3645,7 +3613,7 @@
         <v>0.33782590562508202</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3680,7 +3648,7 @@
         <v>0.29986410261489199</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3715,7 +3683,7 @@
         <v>0.28685994899928402</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -3750,7 +3718,7 @@
         <v>0.269205194520727</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3785,7 +3753,7 @@
         <v>0.43697480073769501</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -3820,7 +3788,7 @@
         <v>0.38678678170023301</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -3855,7 +3823,7 @@
         <v>0.37985500202801298</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -3890,7 +3858,7 @@
         <v>0.37769917469701197</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -3925,7 +3893,7 @@
         <v>0.36795571289419099</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3960,7 +3928,7 @@
         <v>0.36653051497263101</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
@@ -3995,7 +3963,7 @@
         <v>0.36605388332036098</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -4030,7 +3998,7 @@
         <v>0.365852406553552</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -4065,7 +4033,7 @@
         <v>0.36469286753323998</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -4100,7 +4068,7 @@
         <v>0.36351020126794398</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -4135,7 +4103,7 @@
         <v>0.36045363298345501</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -4170,7 +4138,7 @@
         <v>0.35833224780268502</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -4205,7 +4173,7 @@
         <v>0.35392447641880598</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4240,7 +4208,7 @@
         <v>0.35224092453748801</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -4275,7 +4243,7 @@
         <v>0.34709450517838503</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -4310,7 +4278,7 @@
         <v>0.34687249481276999</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -4345,7 +4313,7 @@
         <v>0.34587244220796398</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4380,7 +4348,7 @@
         <v>0.342630596176626</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -4415,7 +4383,7 @@
         <v>0.34157583042311301</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4450,7 +4418,7 @@
         <v>0.34084431180629499</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -4485,7 +4453,7 @@
         <v>0.34046736873344202</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -4520,7 +4488,7 @@
         <v>0.33935034316076401</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -4555,7 +4523,7 @@
         <v>0.33781414113026098</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -4590,7 +4558,7 @@
         <v>0.33185841177284198</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -4625,7 +4593,7 @@
         <v>0.32410185196816499</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -4660,7 +4628,7 @@
         <v>0.32403263063305199</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -4695,7 +4663,7 @@
         <v>0.317756723322135</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -4730,7 +4698,7 @@
         <v>0.31682584579012502</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -4765,7 +4733,7 @@
         <v>0.31587866838141598</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -4800,7 +4768,7 @@
         <v>0.31481862004102801</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -4835,7 +4803,7 @@
         <v>0.31219099308370901</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -4870,7 +4838,7 @@
         <v>0.31165169131641102</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -4905,7 +4873,7 @@
         <v>0.30954054405382198</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -4940,7 +4908,7 @@
         <v>0.30360096368136702</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -4975,7 +4943,7 @@
         <v>0.30321269032442599</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -5010,7 +4978,7 @@
         <v>0.30318990195031997</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -5045,7 +5013,7 @@
         <v>0.29899437433446402</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>54</v>
       </c>
@@ -5080,7 +5048,7 @@
         <v>0.29892638452100401</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -5115,7 +5083,7 @@
         <v>0.29566988802636102</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -5150,7 +5118,7 @@
         <v>0.287657159416007</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -5185,7 +5153,7 @@
         <v>0.286756120186626</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -5220,7 +5188,7 @@
         <v>0.28579977855143601</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -5255,7 +5223,7 @@
         <v>0.28157112697241898</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -5290,7 +5258,7 @@
         <v>0.27852168459712801</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -5325,7 +5293,7 @@
         <v>0.27840213554201299</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -5360,7 +5328,7 @@
         <v>0.27209334539546898</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -5396,7 +5364,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K75" xr:uid="{293F8955-BF9F-4A6F-9B75-1002B486E49F}"/>
+  <autoFilter ref="A1:K75" xr:uid="{293F8955-BF9F-4A6F-9B75-1002B486E49F}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="478dc69a-833a-42a9-84b3-16fff4b93bfb"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
@@ -5410,11 +5384,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:C297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P326" sqref="P325:P326"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D312" sqref="D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -6560,7 +6538,7 @@
         <v>0.116531989454014</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -6571,7 +6549,7 @@
         <v>0.28109560465010802</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -6582,7 +6560,7 @@
         <v>0.27183680213922301</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -6593,7 +6571,7 @@
         <v>0.25362679832737201</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -8276,7 +8254,7 @@
         <v>0.120066425813426</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>154</v>
       </c>
@@ -8287,7 +8265,7 @@
         <v>0.32625435056106999</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>154</v>
       </c>
@@ -8298,7 +8276,7 @@
         <v>0.25825228529257599</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>154</v>
       </c>
@@ -8309,7 +8287,7 @@
         <v>0.24882321842035801</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>154</v>
       </c>
@@ -8676,7 +8654,7 @@
   <autoFilter ref="A1:C297" xr:uid="{0FADEDE1-A876-E348-B580-951D75F42B8C}">
     <filterColumn colId="0">
       <filters>
-        <filter val="1edff768-5466-42b7-86d3-539556887683"/>
+        <filter val="478dc69a-833a-42a9-84b3-16fff4b93bfb"/>
       </filters>
     </filterColumn>
   </autoFilter>
